--- a/doc/Tableau de synthese E4.xlsx
+++ b/doc/Tableau de synthese E4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testipformation-my.sharepoint.com/personal/r_leroy_ecole-ipssi_net/Documents/IPSSI/PortefolioRL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ACF990B-FC5B-46B6-9C6D-1304E965C1E8}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A918E036-BE83-4A61-90DA-551D7D6F9A7C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -50,16 +50,10 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
     <t>▢ SISR</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -144,9 +138,6 @@
     <t>Centre de formation : IPSSI FORMATION</t>
   </si>
   <si>
-    <t>25/09/2022 - 10/11/2022</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -169,6 +160,33 @@
   </si>
   <si>
     <t>07/03/2023 - ../../2024</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio :https://rleroy77.github.io/PortefolioRL/</t>
+  </si>
+  <si>
+    <t>N° candidat : 01948586932</t>
+  </si>
+  <si>
+    <t>26/09/2022 - 14/11/2022</t>
+  </si>
+  <si>
+    <t>Repondre aux problématiques de M2L (AP2)</t>
+  </si>
+  <si>
+    <t>06/02/2023 - 10/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventaire des équipement de réseaux </t>
+  </si>
+  <si>
+    <t>07/11/2023-07/11/2023</t>
+  </si>
+  <si>
+    <t>Développement d'un application web (site e-commerce)</t>
+  </si>
+  <si>
+    <t>24/10/2023-….</t>
   </si>
 </sst>
 </file>
@@ -178,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -258,6 +276,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +291,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -653,12 +677,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -723,72 +776,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,9 +783,96 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1104,140 +1178,141 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.44140625" customWidth="1"/>
+    <col min="44" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="B6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="D7" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1275,17 +1350,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1322,17 +1397,17 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="45" t="s">
-        <v>29</v>
+      <c r="E9" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1373,18 +1448,20 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1422,21 +1499,21 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="46">
-        <v>44851</v>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="45" t="s">
-        <v>35</v>
-      </c>
+      <c r="H11" s="53"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1473,20 +1550,20 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="46">
-        <v>44705</v>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="24">
+        <v>44851</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="45" t="s">
-        <v>35</v>
+      <c r="G12" s="52"/>
+      <c r="H12" s="54" t="s">
+        <v>32</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1524,20 +1601,20 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="24">
+        <v>44705</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="45" t="s">
-        <v>35</v>
+      <c r="H13" s="54" t="s">
+        <v>32</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1575,21 +1652,21 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="46">
-        <v>44928</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>35</v>
-      </c>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="54" t="s">
+        <v>32</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1626,10 +1703,16 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="24">
+        <v>44928</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -1671,10 +1754,16 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -1716,14 +1805,20 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" s="16"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -1761,7 +1856,7 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
@@ -1806,17 +1901,15 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1853,15 +1946,17 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1898,14 +1993,18 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="H21" s="16"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -1943,7 +2042,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="15"/>
@@ -1988,7 +2087,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="15"/>
@@ -2033,7 +2132,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="15"/>
@@ -2078,7 +2177,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="15"/>
@@ -2123,7 +2222,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="15"/>
@@ -2168,17 +2267,15 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2215,15 +2312,17 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2260,7 +2359,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="15"/>
@@ -2305,7 +2404,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="15"/>
@@ -2350,7 +2449,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="15"/>
@@ -2395,7 +2494,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="15"/>
@@ -2440,7 +2539,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="15"/>
@@ -2485,15 +2584,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2530,15 +2629,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2575,88 +2674,133 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+    </row>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2798,18 +2942,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4E27C2-9E50-4B05-A279-A1A1A8E00469}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0BFF56-BE1D-4AD9-9F23-E461DD70F79B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0BFF56-BE1D-4AD9-9F23-E461DD70F79B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4E27C2-9E50-4B05-A279-A1A1A8E00469}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/Tableau de synthese E4.xlsx
+++ b/doc/Tableau de synthese E4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testipformation-my.sharepoint.com/personal/r_leroy_ecole-ipssi_net/Documents/IPSSI/PortefolioRL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A918E036-BE83-4A61-90DA-551D7D6F9A7C}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B526DBA-14C4-4FCB-87CD-AB35ED2EAC8A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -153,18 +153,9 @@
     <t>Portfolio: créer un site web personnel</t>
   </si>
   <si>
-    <t>Création d'une base de donnée</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>07/03/2023 - ../../2024</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :https://rleroy77.github.io/PortefolioRL/</t>
-  </si>
-  <si>
     <t>N° candidat : 01948586932</t>
   </si>
   <si>
@@ -186,7 +177,52 @@
     <t>Développement d'un application web (site e-commerce)</t>
   </si>
   <si>
-    <t>24/10/2023-….</t>
+    <t>Installation et configuration d’un outil d’inventaire et ticketing (GLPI)</t>
+  </si>
+  <si>
+    <t>21/11/2023-21/11/2023</t>
+  </si>
+  <si>
+    <t>https://rleroy77.github.io/PortefolioRL/</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio :</t>
+  </si>
+  <si>
+    <t>07/03/2023 - 31/05/2024</t>
+  </si>
+  <si>
+    <t>24/05/2022-31/05/2024</t>
+  </si>
+  <si>
+    <t>17/10/2022-17/1/2022</t>
+  </si>
+  <si>
+    <t>Développement d'une API (Javascript)</t>
+  </si>
+  <si>
+    <t>Application Demande Matériel en Symfony 6</t>
+  </si>
+  <si>
+    <t>Application Demande Véhicule en Symfony 6</t>
+  </si>
+  <si>
+    <t>Application WebRH en C# (ASP.NET MVC)</t>
+  </si>
+  <si>
+    <t>09/05/2023-23/06/2023</t>
+  </si>
+  <si>
+    <t>09/05/2023-23/06/2024</t>
+  </si>
+  <si>
+    <t>09/05/2023-23/06/2025</t>
+  </si>
+  <si>
+    <t>24/10/2023-31/01/2024</t>
+  </si>
+  <si>
+    <t>07/11/2023-310/01/2024</t>
   </si>
 </sst>
 </file>
@@ -196,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -265,13 +301,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -291,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -339,19 +368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
@@ -532,23 +548,123 @@
       <right style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right/>
       <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -557,33 +673,18 @@
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -591,88 +692,56 @@
       <right style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
       <right/>
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
       <right style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -687,31 +756,33 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -728,29 +799,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,116 +817,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1178,16 +1241,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ82"/>
+  <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.44140625" customWidth="1"/>
     <col min="44" max="16384" width="10.88671875" style="1"/>
@@ -1220,98 +1283,100 @@
       <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="33"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="42" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="A5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I7"/>
@@ -1351,16 +1416,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1398,20 +1463,20 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="23" t="s">
+      <c r="B9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1449,20 +1514,20 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="23" t="s">
+      <c r="A10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="12"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1500,20 +1565,20 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="53"/>
+      <c r="B11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="22"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1550,20 +1615,20 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="24">
-        <v>44851</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="54" t="s">
-        <v>32</v>
+      <c r="B12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1602,19 +1667,19 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="24">
-        <v>44705</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="54" t="s">
-        <v>32</v>
+      <c r="B13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1653,19 +1718,19 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="54" t="s">
-        <v>32</v>
+      <c r="B14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1704,20 +1769,24 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="24">
-        <v>44928</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="12"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1755,20 +1824,20 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="12"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1806,20 +1875,20 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="16"/>
+      <c r="A17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="12"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1857,14 +1926,26 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="12"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1901,15 +1982,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1946,17 +2029,25 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="12"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1994,18 +2085,24 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="16"/>
+      <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="12"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2043,14 +2140,24 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="A22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="12"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2088,14 +2195,14 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2133,14 +2240,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2178,14 +2285,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2223,14 +2330,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2267,15 +2374,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2312,17 +2421,15 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2360,14 +2467,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2405,14 +2512,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2450,14 +2557,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2495,14 +2602,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2540,14 +2647,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2584,15 +2691,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2629,15 +2736,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2674,51 +2781,7 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-    </row>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2764,11 +2827,10 @@
     <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
@@ -2778,12 +2840,15 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{6526391F-7004-47D5-B242-767DFC2CE2EC}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2952,8 +3017,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4E27C2-9E50-4B05-A279-A1A1A8E00469}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
